--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H2">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J2">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N2">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P2">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q2">
-        <v>759.6020923676544</v>
+        <v>22.95711874453334</v>
       </c>
       <c r="R2">
-        <v>6836.41883130889</v>
+        <v>206.6140687008</v>
       </c>
       <c r="S2">
-        <v>0.05557361589820877</v>
+        <v>0.00262753505655742</v>
       </c>
       <c r="T2">
-        <v>0.05557361589820876</v>
+        <v>0.00262753505655742</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H3">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J3">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P3">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q3">
-        <v>758.7449591359623</v>
+        <v>537.4171618318054</v>
       </c>
       <c r="R3">
-        <v>6828.704632223661</v>
+        <v>4836.754456486249</v>
       </c>
       <c r="S3">
-        <v>0.05551090675947645</v>
+        <v>0.0615095669636205</v>
       </c>
       <c r="T3">
-        <v>0.05551090675947645</v>
+        <v>0.06150956696362052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H4">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J4">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N4">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P4">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q4">
-        <v>933.2676353688202</v>
+        <v>769.0857785474562</v>
       </c>
       <c r="R4">
-        <v>8399.408718319381</v>
+        <v>6921.772006927105</v>
       </c>
       <c r="S4">
-        <v>0.06827924464577859</v>
+        <v>0.08802497678914521</v>
       </c>
       <c r="T4">
-        <v>0.06827924464577856</v>
+        <v>0.08802497678914521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.58598166666667</v>
+        <v>19.539082</v>
       </c>
       <c r="H5">
-        <v>82.75794500000001</v>
+        <v>58.61724600000001</v>
       </c>
       <c r="I5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="J5">
-        <v>0.2704460545904799</v>
+        <v>0.224220971665117</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N5">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P5">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q5">
-        <v>1244.948612441813</v>
+        <v>629.5880071177701</v>
       </c>
       <c r="R5">
-        <v>11204.53751197632</v>
+        <v>5666.29206405993</v>
       </c>
       <c r="S5">
-        <v>0.09108228728701616</v>
+        <v>0.0720588928557938</v>
       </c>
       <c r="T5">
-        <v>0.09108228728701613</v>
+        <v>0.0720588928557938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J6">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N6">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P6">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q6">
-        <v>722.4029787796301</v>
+        <v>30.82442926364444</v>
       </c>
       <c r="R6">
-        <v>6501.626809016671</v>
+        <v>277.4198633728</v>
       </c>
       <c r="S6">
-        <v>0.05285207356562905</v>
+        <v>0.0035279805532167</v>
       </c>
       <c r="T6">
-        <v>0.05285207356562904</v>
+        <v>0.003527980553216699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J7">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P7">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q7">
         <v>721.5878209410631</v>
@@ -883,10 +883,10 @@
         <v>6494.290388469568</v>
       </c>
       <c r="S7">
-        <v>0.05279243540892554</v>
+        <v>0.08258864350557954</v>
       </c>
       <c r="T7">
-        <v>0.05279243540892554</v>
+        <v>0.08258864350557955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J8">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N8">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P8">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q8">
-        <v>887.563800262336</v>
+        <v>1032.648323263829</v>
       </c>
       <c r="R8">
-        <v>7988.074202361024</v>
+        <v>9293.834909374464</v>
       </c>
       <c r="S8">
-        <v>0.06493548427070385</v>
+        <v>0.1181907756223572</v>
       </c>
       <c r="T8">
-        <v>0.06493548427070384</v>
+        <v>0.1181907756223572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="J9">
-        <v>0.2572018131577233</v>
+        <v>0.3010605798326856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N9">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P9">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q9">
-        <v>1183.981185797257</v>
+        <v>845.3452372049866</v>
       </c>
       <c r="R9">
-        <v>10655.83067217531</v>
+        <v>7608.10713484488</v>
       </c>
       <c r="S9">
-        <v>0.08662181991246491</v>
+        <v>0.09675318015153216</v>
       </c>
       <c r="T9">
-        <v>0.0866218199124649</v>
+        <v>0.09675318015153217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H10">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J10">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N10">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P10">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q10">
-        <v>519.4821454585331</v>
+        <v>23.11276647128889</v>
       </c>
       <c r="R10">
-        <v>4675.339309126798</v>
+        <v>208.0148982416</v>
       </c>
       <c r="S10">
-        <v>0.03800608437992142</v>
+        <v>0.002645349568172518</v>
       </c>
       <c r="T10">
-        <v>0.03800608437992142</v>
+        <v>0.002645349568172518</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H11">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J11">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P11">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q11">
-        <v>518.8959630156236</v>
+        <v>541.0608141772663</v>
       </c>
       <c r="R11">
-        <v>4670.063667140612</v>
+        <v>4869.547327595395</v>
       </c>
       <c r="S11">
-        <v>0.03796319840283441</v>
+        <v>0.06192659770594245</v>
       </c>
       <c r="T11">
-        <v>0.0379631984028344</v>
+        <v>0.06192659770594246</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H12">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J12">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N12">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P12">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q12">
-        <v>638.2497868025241</v>
+        <v>774.3001285903788</v>
       </c>
       <c r="R12">
-        <v>5744.248081222716</v>
+        <v>6968.701157313408</v>
       </c>
       <c r="S12">
-        <v>0.04669530120476469</v>
+        <v>0.08862178023331449</v>
       </c>
       <c r="T12">
-        <v>0.04669530120476468</v>
+        <v>0.08862178023331449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.86569966666667</v>
+        <v>19.67155566666667</v>
       </c>
       <c r="H13">
-        <v>56.597099</v>
+        <v>59.014667</v>
       </c>
       <c r="I13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="J13">
-        <v>0.1849545940974827</v>
+        <v>0.2257411748281949</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N13">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P13">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q13">
-        <v>851.4044164373814</v>
+        <v>633.8565716179983</v>
       </c>
       <c r="R13">
-        <v>7662.639747936432</v>
+        <v>5704.709144561984</v>
       </c>
       <c r="S13">
-        <v>0.06229001010996219</v>
+        <v>0.07254744732076544</v>
       </c>
       <c r="T13">
-        <v>0.06229001010996218</v>
+        <v>0.07254744732076544</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H14">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J14">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.53580066666666</v>
+        <v>1.174933333333333</v>
       </c>
       <c r="N14">
-        <v>82.60740199999999</v>
+        <v>3.5248</v>
       </c>
       <c r="O14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="P14">
-        <v>0.2054887285464768</v>
+        <v>0.01171850713626266</v>
       </c>
       <c r="Q14">
-        <v>807.2137404773754</v>
+        <v>25.49182083182222</v>
       </c>
       <c r="R14">
-        <v>7264.923664296379</v>
+        <v>229.4263874864</v>
       </c>
       <c r="S14">
-        <v>0.05905695470271755</v>
+        <v>0.002917641958316018</v>
       </c>
       <c r="T14">
-        <v>0.05905695470271755</v>
+        <v>0.002917641958316018</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H15">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J15">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287217</v>
       </c>
       <c r="P15">
-        <v>0.2052568555438283</v>
+        <v>0.2743256641287218</v>
       </c>
       <c r="Q15">
-        <v>806.3028823728578</v>
+        <v>596.7535453300316</v>
       </c>
       <c r="R15">
-        <v>7256.72594135572</v>
+        <v>5370.781907970284</v>
       </c>
       <c r="S15">
-        <v>0.05899031497259193</v>
+        <v>0.06830085595357922</v>
       </c>
       <c r="T15">
-        <v>0.05899031497259194</v>
+        <v>0.06830085595357924</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H16">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J16">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.831228</v>
+        <v>39.361408</v>
       </c>
       <c r="N16">
-        <v>101.493684</v>
+        <v>118.084224</v>
       </c>
       <c r="O16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="P16">
-        <v>0.2524689988514334</v>
+        <v>0.3925813724534833</v>
       </c>
       <c r="Q16">
-        <v>991.7645914644401</v>
+        <v>854.0007606879147</v>
       </c>
       <c r="R16">
-        <v>8925.88132317996</v>
+        <v>7686.006846191231</v>
       </c>
       <c r="S16">
-        <v>0.07255896873018632</v>
+        <v>0.09774383980866641</v>
       </c>
       <c r="T16">
-        <v>0.07255896873018632</v>
+        <v>0.09774383980866641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.31506333333333</v>
+        <v>21.69639766666667</v>
       </c>
       <c r="H17">
-        <v>87.94519</v>
+        <v>65.08919299999999</v>
       </c>
       <c r="I17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="J17">
-        <v>0.2873975381543141</v>
+        <v>0.2489772736740025</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.12975566666666</v>
+        <v>32.221985</v>
       </c>
       <c r="N17">
-        <v>135.389267</v>
+        <v>96.665955</v>
       </c>
       <c r="O17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="P17">
-        <v>0.3367854170582615</v>
+        <v>0.3213744562815322</v>
       </c>
       <c r="Q17">
-        <v>1322.981645586192</v>
+        <v>699.1010001693683</v>
       </c>
       <c r="R17">
-        <v>11906.83481027573</v>
+        <v>6291.909001524315</v>
       </c>
       <c r="S17">
-        <v>0.0967912997488183</v>
+        <v>0.08001493595344078</v>
       </c>
       <c r="T17">
-        <v>0.0967912997488183</v>
+        <v>0.08001493595344079</v>
       </c>
     </row>
   </sheetData>
